--- a/RegEx_Pro/RegEx_Config.xlsx
+++ b/RegEx_Pro/RegEx_Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Desktop\Last\Смотр\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\GitHub\SBZalesky_PIX_RegEx_Pro\RegEx_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A95536-5997-403E-86F4-5082C97414C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57913CA4-7D2C-4DF7-ADBB-F60DA30BC0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ТН" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>RegEx</t>
   </si>
   <si>
@@ -180,6 +168,18 @@
   </si>
   <si>
     <t>[иИ][нН][нН]:*(\w*)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,232 +536,232 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>7813438763</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -951,7 +951,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,156 +964,156 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>7813438763</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E39B78-363B-46FE-BAE6-7B1649DD9890}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,86 +1204,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>7719723690</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1294,16 +1294,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,16 +1314,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/RegEx_Pro/RegEx_Config.xlsx
+++ b/RegEx_Pro/RegEx_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\GitHub\SBZalesky_PIX_RegEx_Pro\RegEx_Pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57913CA4-7D2C-4DF7-ADBB-F60DA30BC0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5090C4A5-5540-4BBB-A678-4E4BD0ABC916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,24 +47,9 @@
     <t>Текст ошибки</t>
   </si>
   <si>
-    <t>RegEx_listSplit</t>
-  </si>
-  <si>
     <t>Разделение по листам</t>
   </si>
   <si>
-    <t>RegEx_listStart_1</t>
-  </si>
-  <si>
-    <t>RegEx_listStart_2</t>
-  </si>
-  <si>
-    <t>RegEx_listStart_3</t>
-  </si>
-  <si>
-    <t>RegEx_listStart_4</t>
-  </si>
-  <si>
     <t>Определитель стартовой страницы</t>
   </si>
   <si>
@@ -180,6 +165,21 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>RegEx_pagesSplit</t>
+  </si>
+  <si>
+    <t>RegEx_pagesStart_1</t>
+  </si>
+  <si>
+    <t>RegEx_pagesStart_2</t>
+  </si>
+  <si>
+    <t>RegEx_pagesStart_3</t>
+  </si>
+  <si>
+    <t>RegEx_pagesStart_4</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,16 +536,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -582,186 +582,186 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -951,7 +951,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,16 +964,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1006,114 +1006,114 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,16 +1204,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1246,44 +1246,44 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1294,16 +1294,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,16 +1314,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
